--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/1_Adana_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/1_Adana_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D062A7E-9E92-4650-8A83-D3FEBDA69E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B3FB08-D0DD-402E-B30A-C5A13D86C3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{703244D5-1EAB-48EA-8717-243F4556C7F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BDCD6D7-A9E0-406C-970C-58E9E54E8AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{E7CE8E4C-D64A-43B4-9938-7FBADE920AE4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C04A8B38-F6EE-437C-BA82-A41502FAEDBF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9119776F-1649-443D-99D0-86C175A309A3}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{ADE15CD0-C380-40F4-85C9-E5AC82DD61C3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{C0538920-5D7F-4E0F-AF55-ED73133895A6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{C7950483-4A73-46FF-A14D-1B8DA6709D14}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D361ABD1-E7F7-41E8-818E-730F4F24D3B3}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{2143C9F9-3600-4E1B-8F3F-D4F21357194A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6FEF24-9559-4269-9876-5DAF34C40EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376DEBBD-C80B-4E50-849D-F71EDE4487E3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2487,18 +2487,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E29DBFCD-4F38-4BA4-B400-102C74500396}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F55816B3-D68D-40C7-ADDF-9ED58AF383F8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1909E013-829F-4908-99CD-50441DC37C62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{95A02762-7F9C-4BEC-8156-2E30E964694F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9848C2C3-8C59-4992-999D-0E9FD0C33129}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2C9E9A01-84E2-407A-9C43-ABA8E622EF33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{21C913E9-A9DF-448E-B410-A8563D96255C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F97C440D-9060-4D2E-894C-85C0355781FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{37CDE3B8-235E-4D83-A1B3-B06A70827CBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB1E601E-79DD-4240-B212-7B3B46FEBDDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A57429E8-5485-4925-AE96-AF141F95B7EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E1BA2E4-6C47-49F8-AB7C-932B25BA083E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45EE32BC-7170-4D02-9853-612F8B79786B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16191033-EA6D-4D73-90E5-937D127790AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3DF89E47-A58C-47BC-A2AF-74A1DF8C90CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{68CB678E-3722-44EF-9536-574090B58E20}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E5130A6A-CB6D-4848-BB4A-67E3CAC95ED1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F881C17D-74D7-4A70-8FD5-A06B0E49DBE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7D00C0BF-BE36-47D7-A0A1-66B6A1F8373E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1AF95B0B-D748-490C-A778-C72E5DFA45AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A32A3182-31B4-4522-AC5F-EF5085B94813}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{00C17E06-A896-4223-8136-56FB3C3CCB2A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{40705C86-9559-4E2E-9B07-183A3BD144C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D8F76CFD-8100-4D57-AD96-71F86EDD498D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2511,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E32ADF-E5A3-4846-AFC9-6A6EE964F652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3670DB-63ED-49AB-8B5F-3223ED23685E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3750,18 +3750,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1D4A7DCC-9305-4375-B569-F2A1DE1928C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A5AF18C2-B782-4874-BA33-2DDA92C301FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E44E0E40-0DE7-476F-8019-F40CC6020116}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3BB38C85-2652-455B-9DEB-08653E3CC5C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FCC9EEF9-09DB-4561-9BC9-B2774515844F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C2F4BE16-1C74-4317-B938-F38FAA9A269B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{769B1FB1-C785-4D17-91ED-16A3B916D96B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EE3B7FDF-6C3B-4A9B-8F33-4096EF4521F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{10436609-D3AC-4B9E-A003-E020AA1AD588}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7708CBA8-2650-4B77-AF71-F76963235B97}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9239FFD3-C8CD-422A-B597-C676B30EAE38}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{45C774CD-9C05-4E0B-81B6-45D3C7E073C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{631FC5FE-C5C6-42F7-9F4A-3A0840274F16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D3699AA-EF2E-4C8E-BEBF-3627D64B9B50}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{505F6D40-23A7-43D6-B220-8E9FFFB4054D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E18A6678-0CD3-4B5A-8BE6-E9A72A42788B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{82C44C35-3AE1-4FD1-AF2A-0BD75F719548}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D5C9CC6D-7E54-49BD-BD22-6F34257C02E9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CEB58CAD-9C88-4952-8E6B-797E7E1EFE39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{473E68BF-2B10-4F12-808F-ED4F00C128FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{84512EE0-4BF3-4968-8DFA-6BF0DD5795FC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C674E8C2-B5A2-4EFA-B718-D3296C881AFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E2D7CC41-735F-4DE4-8E16-9C7E2BD9747A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C025646D-4937-4A35-B2AE-8B6A202E7351}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3774,7 +3774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49BB99A-FCEE-427D-ADCB-9AE6E12718CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3192B297-9A5C-4CB7-B754-70181F5E6020}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5013,18 +5013,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D90A8B88-6A45-4DAC-82EB-8057CA5CDE9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E566ECE9-74FB-4452-A915-8DDA378DE0EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{06AB05DC-E5B1-436D-969B-2A26AF3237EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{53733F3A-059B-4F02-AFD9-4B353C188183}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FE477DE1-9D93-4026-9DF7-8A363431C454}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7478A753-45F0-4589-A43A-79EEF238BA2A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CC4DD3B7-1BFB-422F-AC27-0762DF04ACAB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F8325C07-9A1C-4C84-8C81-6BDE35A17B7F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9D98DA3C-CAC4-4347-B7CA-F773BD03A13D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7F8CA4E-E096-4A0E-8B1D-3B58A7A49066}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7FF2749E-4D55-4AD5-8020-C64201C9C98A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F9CFBE8E-BA54-4910-9071-B21173A30A56}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84F73E15-DBC9-4651-9BCC-B830DCEB1D38}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{491385A4-BFBD-4792-B9E8-5881676BCA74}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DEEB5BD7-CFB9-4A7A-A4B1-25E796270EF2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FB353EDE-5E0E-4976-99D8-C40A6B1C093F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{332B8030-0597-479E-9079-C55D1D932A32}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5163C467-41A1-423B-9C3E-0FF805453487}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9F1B9F46-276D-49C8-BFBA-6A70315DF5C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{18B84A37-6B9A-4894-93A3-A16245070A23}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9E53C530-E713-4EDD-8D89-B06222654623}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{91787B17-44D4-404B-A635-6B820DDD1FA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F65E91CA-4130-41F8-BCB4-E7AD393CB80A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2667600-15C3-421A-8D19-AD51BE941366}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5037,7 +5037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B6A375-6DD2-4F4B-B78E-AB8148196757}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077D593B-12D4-4A22-82EA-592825F71A68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6254,18 +6254,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4CA8E34E-F591-4B79-8B7C-3596B6E5A4E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{298EE8B6-4A85-49C5-AB28-CFDB39CE7F94}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7A0F3A5-784F-45A8-8EE8-C8A8AD73097F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6C242712-70EB-48F3-9D78-97090AB4C49E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3731FAB0-627E-466E-9B2A-5A0C8636A483}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4B83D7CF-85BE-4417-954D-690999A8E666}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3775386F-22AE-41AD-9682-73C5221285E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3E5547C2-7975-4F94-B648-A3F13B45F5D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E109C4CA-7499-4D9E-A681-691F2B795B39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E1055B50-EE86-432F-B625-25C09AE326E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33F0F54E-A1D2-4455-9932-19CB6457BF41}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E5AA4F14-8630-4DD5-A069-7A5C3D7332A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8DC3FFA7-996E-457F-A0BC-6597FC063DEF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B84827E7-A3CE-4FA9-BB6B-064DD7C80D4E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{45C87C59-EC7D-49C5-8077-33AB404BB7E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A557C759-C369-4B0D-95F9-3694AA69BB37}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F08A54C-8194-48F7-AB3A-9A0188EBCBD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{197A8516-DB83-40AD-8978-5D0DCF3E1438}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B5761786-DE54-4122-9083-153DFAAAD887}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D9BB450-65AF-4041-990F-55985DDB1AC3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF2C1DD7-C806-4DD9-99EB-FEEE2AD804F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8798B8D9-52E4-452B-941B-DD2CA91AD981}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AAEF4BFF-591B-4E6E-BA94-24009321D521}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FE617E2A-7FFF-422D-8516-577C5F714830}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6278,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ED1A19-1EB0-4D99-AB43-352E228242E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767EC269-1C66-42FE-8F1F-7CA228954D25}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7535,18 +7535,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{358254E4-BC2D-440B-9CBE-F68BDCB59A74}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6113DEB2-695A-44F5-979A-99ECC3A7F5D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{69ADC654-E9E1-41F0-AA1D-B05DE304FDC2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9C6DA0C8-F177-4890-B111-F964AD18E749}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54362FD4-6757-4C2F-AD61-ABD6764EB7A5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{81D9AD1E-768A-4F58-A52C-063FBBCBDCFB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A8CB2DD-CDE1-413F-97B1-A70305BBA8FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{32713B4E-0FCF-4A52-B49B-E83F74464741}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6636ED5C-D177-479A-B6BE-53682B235FE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9DE4A196-6FD6-490D-A2FA-75EF80C22F33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3EB3ED87-1314-4628-BFAB-00CA7B2FE825}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5289CA15-B860-4CD4-AD59-7BF7DA23BA55}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0853A839-C5B5-4813-BD39-C109CA2FB6D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2523B9AB-7F11-4C8B-9868-589D13DC1A87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A0C149BD-9411-4C7B-A8E8-36AE4BC4CC6B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D89C880-801D-4D9C-A7E9-9A1AE3D873DF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CEFEF194-7CF8-48A4-9B09-2A3D2FAAD0CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4FCA7BC9-55A9-4D93-B8F2-CC6E68C7DC54}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{924261C3-19F0-42EF-834A-B593EDC82669}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{728CA4CF-271A-4184-8D76-1128714FB60C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2AB4E424-FAF1-4858-82BF-0F102F5AFE49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{094BFA41-B735-41C9-AB28-2931FEFF3061}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{233DBD77-DCA3-48E2-B98B-1E6B0812BC70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{66A47BF7-129C-4DDF-B7C0-6AD875F6776E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7559,7 +7559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EABFB3-8B29-4BD5-AA66-4D884FFDED90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80643E8-99E2-4F7A-87C4-BBDD5561C2AF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8812,18 +8812,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45B64E5F-D0A9-42F5-9190-AABC88C6A5CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{541EA3D1-63D8-431B-81AC-B8CDD9C5D674}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B58BA32C-4B2C-4EC2-BAF0-30044A07DE9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{494CEBD9-1395-4F4B-BB24-054FE3115129}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{68E6C1A4-8217-46A9-96B6-2820B18CC02A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{39C9FB55-E8E5-4E97-A901-5913D5FB3CA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FBAE043B-A6B5-4609-916E-040FC485D209}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{612D1071-9D7B-4764-BED1-0403DD9E0449}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2B42CD47-4950-49D1-9C8D-355F5E72BD30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C5CA33C5-7CAE-4C70-A351-6722809DB7EC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{21B6F453-765A-4461-880C-7D79FD7F47D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6AB6952C-D001-4E92-9FD8-D85C1519809E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3A764DCD-A1AE-46E0-8AA8-ACC9FC442B03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{957328D9-6F05-4D7F-9B31-451981F18E4D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C787FDC-AD01-493E-98CB-10C56AD77522}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62ED05A4-C32F-40F2-BEB1-7932C481A361}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{24B4969E-B876-40BA-B8FD-C9347E584614}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D413037E-3602-489C-82F6-D89E5496B383}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0066E7F6-C354-4171-BD80-ABECF893566A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56A8844D-60B2-4A52-88B6-4DC98519A6B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B56149C8-5506-4E83-86C8-F031E8F341B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E73FD1D4-C83E-4F86-B297-210F7B46E10D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{426234BC-B861-43F0-86A6-CE797E7305EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AF74E462-12FE-4BD6-A348-9FD3D780C855}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8836,7 +8836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8C41F-4578-4E40-93F5-9CCAC25F2847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53241-3CFA-4612-A40F-ED60E11EAD82}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10087,18 +10087,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC7BD98A-B293-420D-85D0-26ACB8084621}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C5CCF36F-0041-4710-BD88-61123E8976EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3055AF8-0D2E-409B-BA2D-1F15B9A61CF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{68D437DB-DA39-4D70-B48A-942AEFB53A1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1C0D886-5E9B-486B-B198-0BA8C74FE26B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5FFCF09C-D6E2-4553-86D2-22766FD41C6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{76F70AB2-E99E-4365-B203-E04D152F820A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{069CFDC4-1305-4E71-A035-D8BFECC97E27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49E6C9D4-3E9A-4C65-8B2A-E45B51A26D9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5EC8188D-3768-4368-AF52-C34131F8CF10}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8CC2D8EC-CF21-4BD3-A885-C111F773F7E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{70AAE326-27C7-489B-96E5-43ECB981627B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{58FBC21D-51B9-4EF6-88B7-8945A07B5FD4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5562F2B8-7457-40AE-83A3-55FAA6ECD97E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{031D3AE3-1357-4456-9AF3-C74D04B4DE42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3497A7D3-D788-4FE2-A04C-3971E53FF149}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6211DACF-5DC6-44BA-A8D4-CA09319D22F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8767A89D-F022-4E45-8D37-CEA1114A370F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FD7741A8-4820-4E62-B73D-CE228EFAB5D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{06F0BEA7-4884-45CB-B994-0583DDC10537}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{68583C8B-B022-406F-9338-1ECF0641494D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3A2A1B9D-472A-41BE-9949-A92B9F5874A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2CDAD8A-B9C2-438F-B3A1-42D4436973B9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{96D0E2B4-BD8C-4969-855E-38B6CF9F59A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10111,7 +10111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03A783A-22CA-40C4-BE1C-A0AF8AC553BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95EE978-8D65-4B0E-BA34-30651AA106AB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11360,18 +11360,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5335EC4F-0FCF-430D-BBD8-EE3D36592663}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{014C728D-7A7A-4C6A-901A-1580227F0C05}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6DF3369F-82CC-4F5E-9A40-07A9E4386813}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{35F99190-D20B-4E89-A2A1-54993FD07C77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D4ED164-489B-441F-98BA-0322902BCA39}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{483A9393-D3C9-4CA6-B3FB-4E8DE236BC03}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D183FE41-4366-4030-9D68-B09BABE18EC8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC766A56-65DB-49A9-BBA9-4D9B01036F02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{093ACE0B-47C4-49B7-9D6F-754A6956EED2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4C8874C4-072F-4EE2-AB28-51A262D49308}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5DAAE999-7158-468C-8A76-30DD64EDF005}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C0A2CBBF-6FE0-4D2C-9B23-477533D112F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3F19C854-235E-4E31-919E-A5F17AC249A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C4E79DAD-4AC5-45C2-820B-9012AA44BF25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7F4521DD-9896-4504-B44C-48F1A20110DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1F6044B7-97D6-4017-A557-E54B5391D160}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{31D26339-27B8-4728-AB97-228C03119A0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B1A58C1-EE39-42E6-A921-D15804067ABA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3DDD108B-9E37-4F82-AC79-72E54F910CA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3AB08064-12BC-4613-A1BC-8EAA3CB7F772}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CA502459-45FD-4A0F-9978-C1A7BE8188D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{945B98B0-C7AE-4B3D-A1F9-A7F5C74E78E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{89FE774D-79A1-42E1-8BCE-FF3D9B8C975F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFBC98FE-4FA0-49CB-A170-AA6C6D1507EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11384,7 +11384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD734F7-5BFF-48B5-8677-CA0FD5126E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ED2FD4-BDE4-491E-8010-F7F4D7AA01AE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12633,18 +12633,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A920999C-493C-4E41-A471-105FBC5A27DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5D2BBB30-9F1B-4158-A85C-5E3D7DB6F8ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8E65075B-85F6-485F-999C-ED85A08AF9F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{749C1F4C-9BDB-463D-9DBE-06C329872B9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E7C2049B-B7A1-439E-A101-AE7B9F12CCA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BE5A6E8C-D5DC-4300-B5DD-C19903716BC5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F8E74BC-03D4-4C3B-8B1A-BE86169DE795}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6129D614-C9BB-46B4-86AC-636E164E043E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{85C49F5D-2040-4AAA-8FDF-8E5B0BE9DA30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FE342A19-F327-4F35-AB05-074A50215989}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DDE95ACD-E776-41AA-98EC-FD6AA10A50C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{16BB21B3-53D1-4545-A8D6-8BF06E54B3A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AE15E43E-14FA-4C73-9036-E4D47E932698}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{878EF69B-C8BD-4AC6-8701-3B4172D8895A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{65CFFA16-C49A-4AD9-ABA3-6B095E9EF66B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2CD237F0-655B-48A0-AF05-61BF5F3C1A28}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7AF61737-40B8-442D-AEDE-4B25953F9592}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6E1B4E5-0274-4CA3-9EAE-00D9DD7D88C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4AB93EB-3495-456F-BC16-A3BBD38A3E3B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5033CCC4-0A44-4D79-8965-51B02397EA62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2281E2B4-322F-46C2-BE0D-0072C8C8747C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E17C0EFF-A1F4-4C55-8394-005A62306ABA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1FE8621B-F679-4E1A-884D-D563E767A3B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E6E1D202-A012-4846-9DF4-D780621F8D92}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12657,7 +12657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC2B9A8-25A6-487A-98D1-C212500A5BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18BA55-F523-48CC-870C-C0D4508DE6F1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13904,18 +13904,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F8B17279-1A29-449D-BD79-13E68B8662BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D60C69BB-D648-48B1-BEF7-6FE33B99C0AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C4F8AD0F-E50B-4489-B615-130976E11AD4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B1953BA-660C-471B-BC6A-10E56DCED7DA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EA3BBF41-91D5-4693-9658-481FB35336C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3A36D0A4-2014-4E13-9CD1-FDE6F7A7EDD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E8ADB20A-246D-479F-BA6F-898B1B3F5021}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ACB45013-73B2-4D9B-A4B9-1AA89C3FB935}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C610B3A1-29F4-4E6B-9CB5-8BD78807ADE6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1BF026EF-BC08-4765-8E85-88FB496CF7CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{87053E1A-B763-4ADD-BB38-E1DDCC52907A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B923EF35-951D-4839-8C8A-2F4223CD8701}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63467537-5A88-4288-9E38-42E923664D65}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A9585B7B-9C86-4E05-AF72-E35875637BCC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{79A5203B-BEDC-4A74-AA5D-5D3AA85EEC2A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{86D7EF9D-8F00-499C-B5E9-FC52417D2F5C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DCF1D6F4-E8A6-439B-BFE7-CA2418A2B630}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1221FF9C-C287-4287-A2E2-E59E1BE969AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{37502EF0-8BBE-40E0-A71E-DE8201F9843B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{70E45185-DAF9-4C77-9BB5-9C99F030F737}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AF8D0E3E-1F72-49D4-8E53-3DA9E26E3C73}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9A003A4B-B265-4EEA-8063-AC2A841BF05C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{546CD2CE-0056-47DB-A0E3-09CCFC85E88B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F09093C-D97D-4A1C-9D9F-B9711A491140}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13928,7 +13928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857293FB-3FA6-4CEA-BFCF-3AF3973044A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ADA715-1674-4D90-BD80-81BA9A0C167B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15171,18 +15171,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C4DA6A9D-3553-430A-80DD-7D92E7D7430B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4FE7A43C-227B-4132-BA0E-161EF36B8179}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D0CE047A-8BD0-4C5E-912F-65759F7BBE4E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D8C44DAF-312A-4206-BE79-1570DD0C7C47}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1DDDB6F1-C262-4F58-A1A0-D552FE793F6C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A18D9FBF-96FD-4469-8710-B9E76E67543B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6CFB14EF-A4C9-4068-BB03-FCC462EDA135}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{36106774-A683-4BDA-8CBC-E06D19A45C2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A471572C-FFAE-41EA-A9C6-C2D862D2A20E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB00547D-0FBC-4A1D-9D89-0FA0CAB437C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A99201D-7BB8-461D-98EA-37D16CA83681}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED39072D-0433-43A5-80F3-564A7A8E89EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{89C57449-5A97-4F72-A123-4EB97D34771C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82899F1F-A5B2-4F1B-ADBF-F8DE58619A87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{021F1A47-8CB2-4482-9498-68935EE9D4F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FFB219A2-AE59-4411-A1F9-03F793CC78A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1313B233-623F-47A2-950F-F6D6C761AACC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3AABAC14-F502-4DD4-9FBB-1833670F8DF4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5DBF9B3C-D512-4BF7-A3B5-7EA5459671FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EF53CA1A-EC47-4514-A3AC-4F1F38CC1B86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18C96C75-6148-4770-9745-F095FF0CCD11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AD221259-ECC1-4995-9FA2-423C775AD145}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6720A2A8-B5DF-4573-A63B-ED6AA3D2B50C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15541E0D-C256-4C57-8402-51E567DF2CBF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15195,7 +15195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA4D29-8A25-4355-B6D6-D7EB0ED6DB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FFF0A8-52A3-473C-84F3-5ED4E8A25F8C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16434,18 +16434,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{03FFD1A8-53EE-43BF-91AA-865A8B3644B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DC8D978B-5D74-4D55-AC31-5B4381B9E9F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C716D6A5-6438-413B-B258-27019E84580A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{870CDF4F-4531-450A-9D76-CEC466232196}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EAC31A81-60C0-4D48-81DD-AEA0C41DE24E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C9CD0F1D-B92D-428C-AF5B-BDA57894EA9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{93856B7C-3DEC-4900-9186-28FEF7371405}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0EB584EE-5408-4078-9435-E23DB1B3B11E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E337236B-5450-4B27-936B-7E54C9BB65DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AD9C05F9-5D40-4022-852B-6C2A05BE4CF7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC6CC87E-1161-45AF-991A-FA3B114B6689}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{71C8A650-3A26-42A1-B08C-868FC8CF8E25}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{61A04BA1-4912-40BA-82C3-EB5488BEA179}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A0828205-1278-4519-BE36-F97AB82882AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FF709E3A-8EFA-4225-88D3-78E8A1DE6509}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EDE23C7B-C450-4905-BAAD-6300E942C300}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E285C25F-0EA7-47FB-9ED1-0049B1BAEEB1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7FE467D3-C3AA-49BB-996D-4A0F80F0EDD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{908F03CB-6BE5-4DE2-8EBF-91657C048095}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F61EE570-2B18-4757-A07B-37A3D86CC74F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{41671D3F-EAA1-4E00-A002-91D66B73B35F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FCD641D1-44FD-4047-836E-5A8F60C6D356}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CF15DB28-4729-45D9-92BB-ACEE71BC4653}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E2838A7C-46AF-49FD-AFF4-C2D65C68AF37}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
